--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.110520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.110520.xlsx_with_dialog_acts.xlsx
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2359,12 +2359,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5379,12 +5379,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5421,12 +5421,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6513,12 +6513,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6555,12 +6555,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6807,12 +6807,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7101,12 +7101,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7819,12 +7819,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8449,12 +8449,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8785,12 +8785,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8827,12 +8827,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8869,12 +8869,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8955,12 +8955,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9461,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11053,12 +11053,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11139,12 +11139,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11307,12 +11307,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11727,12 +11727,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12869,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
